--- a/example.xlsx
+++ b/example.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21120" windowHeight="9600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>4/5/2015 1:34:02 PM</t>
   </si>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>Strawberries</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -396,7 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -489,12 +497,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -502,12 +521,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
